--- a/data/strategies/德邦场内策略结果.xlsx
+++ b/data/strategies/德邦场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="202">
+  <si>
+    <t>华夏国证半导体芯片ETF</t>
+  </si>
+  <si>
+    <t>国泰中证全指家电ETF</t>
+  </si>
   <si>
     <t>招商上证消费80ETF</t>
   </si>
   <si>
-    <t>国泰中证全指家电ETF</t>
+    <t>国泰中证军工ETF</t>
   </si>
   <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>华夏国证半导体芯片ETF</t>
-  </si>
-  <si>
-    <t>国泰中证军工ETF</t>
-  </si>
-  <si>
     <t>盈利修复+周期制造</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>7.28%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>23.92%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>8.37%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>20.36%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>26.19%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>9.02%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>20.10%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>12.52%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>24.21%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>20.86%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>26.16%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -140,109 +137,109 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159995.OF</t>
+  </si>
+  <si>
+    <t>159996.OF</t>
+  </si>
+  <si>
     <t>510150.OF</t>
   </si>
   <si>
-    <t>159996.OF</t>
+    <t>512660.OF</t>
   </si>
   <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>159995.OF</t>
-  </si>
-  <si>
-    <t>512660.OF</t>
-  </si>
-  <si>
-    <t>-1.60%</t>
-  </si>
-  <si>
-    <t>-1.94%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>14.73%</t>
-  </si>
-  <si>
-    <t>7.60%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>38.65%</t>
-  </si>
-  <si>
-    <t>12.76%</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>22.77%</t>
-  </si>
-  <si>
-    <t>-10.02%</t>
-  </si>
-  <si>
-    <t>14.81%</t>
-  </si>
-  <si>
-    <t>9.97%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>38.12%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>20.18%</t>
-  </si>
-  <si>
-    <t>15.06%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>32.22%</t>
-  </si>
-  <si>
-    <t>26.07%</t>
-  </si>
-  <si>
-    <t>27.31%</t>
-  </si>
-  <si>
-    <t>20.26%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>35.03%</t>
-  </si>
-  <si>
-    <t>34.49%</t>
+    <t>20.70%</t>
+  </si>
+  <si>
+    <t>-2.45%</t>
+  </si>
+  <si>
+    <t>-4.54%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>33.16%</t>
+  </si>
+  <si>
+    <t>-0.33%</t>
+  </si>
+  <si>
+    <t>2.21%</t>
+  </si>
+  <si>
+    <t>7.93%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>-0.23%</t>
+  </si>
+  <si>
+    <t>-2.76%</t>
+  </si>
+  <si>
+    <t>-10.93%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>45.17%</t>
+  </si>
+  <si>
+    <t>13.95%</t>
+  </si>
+  <si>
+    <t>21.00%</t>
+  </si>
+  <si>
+    <t>34.61%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>34.23%</t>
+  </si>
+  <si>
+    <t>15.26%</t>
+  </si>
+  <si>
+    <t>20.57%</t>
+  </si>
+  <si>
+    <t>28.59%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>35.91%</t>
+  </si>
+  <si>
+    <t>20.05%</t>
+  </si>
+  <si>
+    <t>27.28%</t>
+  </si>
+  <si>
+    <t>35.05%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -257,307 +254,307 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>600690.SH</t>
   </si>
   <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>603486.SH</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
     <t>603501.SH</t>
   </si>
   <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>603486.SH</t>
-  </si>
-  <si>
     <t>600519.SH</t>
   </si>
   <si>
-    <t>300750.SZ</t>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>688169.SH</t>
+  </si>
+  <si>
+    <t>601888.SH</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
   </si>
   <si>
     <t>300014.SZ</t>
   </si>
   <si>
-    <t>601888.SH</t>
-  </si>
-  <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
-    <t>600893.SH</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>002049.SZ</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
     <t>300124.SZ</t>
   </si>
   <si>
-    <t>002179.SZ</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>3.83%</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>2.63%</t>
-  </si>
-  <si>
-    <t>2.37%</t>
-  </si>
-  <si>
-    <t>2.36%</t>
-  </si>
-  <si>
-    <t>2.11%</t>
-  </si>
-  <si>
-    <t>1.90%</t>
-  </si>
-  <si>
-    <t>1.85%</t>
-  </si>
-  <si>
-    <t>1.81%</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.66%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>1.55%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.22%</t>
+    <t>320.94%</t>
+  </si>
+  <si>
+    <t>283.18%</t>
+  </si>
+  <si>
+    <t>279.68%</t>
+  </si>
+  <si>
+    <t>256.04%</t>
+  </si>
+  <si>
+    <t>228.84%</t>
+  </si>
+  <si>
+    <t>227.76%</t>
+  </si>
+  <si>
+    <t>193.35%</t>
+  </si>
+  <si>
+    <t>188.96%</t>
+  </si>
+  <si>
+    <t>182.26%</t>
+  </si>
+  <si>
+    <t>176.09%</t>
+  </si>
+  <si>
+    <t>165.14%</t>
+  </si>
+  <si>
+    <t>164.82%</t>
+  </si>
+  <si>
+    <t>158.96%</t>
+  </si>
+  <si>
+    <t>152.36%</t>
+  </si>
+  <si>
+    <t>152.00%</t>
+  </si>
+  <si>
+    <t>149.48%</t>
+  </si>
+  <si>
+    <t>143.42%</t>
+  </si>
+  <si>
+    <t>138.34%</t>
+  </si>
+  <si>
+    <t>135.38%</t>
+  </si>
+  <si>
+    <t>132.14%</t>
   </si>
   <si>
     <t>海尔智家</t>
   </si>
   <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>科沃斯</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
     <t>韦尔股份</t>
   </si>
   <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>科沃斯</t>
-  </si>
-  <si>
     <t>贵州茅台</t>
   </si>
   <si>
-    <t>宁德时代</t>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>石头科技</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>三安光电</t>
   </si>
   <si>
     <t>亿纬锂能</t>
   </si>
   <si>
-    <t>中国中免</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>紫光国微</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
     <t>汇川技术</t>
   </si>
   <si>
-    <t>中航光电</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
     <t>电冰箱</t>
   </si>
   <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
+  </si>
+  <si>
+    <t>服务机器人</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
     <t>CMOS图像传感器产品</t>
   </si>
   <si>
-    <t>暖通空调</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
-    <t>服务机器人</t>
-  </si>
-  <si>
     <t>茅台酒</t>
   </si>
   <si>
-    <t>动力电池系统</t>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>智能扫地机</t>
+  </si>
+  <si>
+    <t>商品贸易-免税商品</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
   </si>
   <si>
     <t>锂离子电池</t>
   </si>
   <si>
-    <t>商品贸易-免税商品</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>航空发动机制造及衍生产品</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>液体乳</t>
-  </si>
-  <si>
     <t>变频器类</t>
   </si>
   <si>
-    <t>电连接器</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>151.63%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
+    <t>-8.19%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>148.35%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>7.46%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -566,67 +563,67 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>家电家具</t>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
   </si>
   <si>
     <t>食品饮料</t>
   </si>
   <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>机械设备</t>
+    <t>商业贸易</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
   </si>
   <si>
     <t xml:space="preserve">锂电池 </t>
   </si>
   <si>
-    <t>商业贸易</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>23.31%</t>
-  </si>
-  <si>
-    <t>19.67%</t>
-  </si>
-  <si>
-    <t>9.16%</t>
-  </si>
-  <si>
-    <t>9.05%</t>
-  </si>
-  <si>
-    <t>7.71%</t>
-  </si>
-  <si>
-    <t>6.73%</t>
-  </si>
-  <si>
-    <t>6.23%</t>
-  </si>
-  <si>
-    <t>4.88%</t>
-  </si>
-  <si>
-    <t>4.78%</t>
-  </si>
-  <si>
-    <t>4.38%</t>
-  </si>
-  <si>
-    <t>4.09%</t>
+    <t>13.05%</t>
+  </si>
+  <si>
+    <t>5.58%</t>
+  </si>
+  <si>
+    <t>3.71%</t>
+  </si>
+  <si>
+    <t>3.17%</t>
+  </si>
+  <si>
+    <t>2.84%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>1.82%</t>
+  </si>
+  <si>
+    <t>1.59%</t>
+  </si>
+  <si>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>1.38%</t>
+  </si>
+  <si>
+    <t>1.35%</t>
   </si>
 </sst>
 </file>
@@ -990,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,22 +1056,22 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.015076030412165</v>
+        <v>1.028039681888989</v>
       </c>
       <c r="C3">
         <v>1.012875845202129</v>
       </c>
       <c r="D3">
+        <v>1.015086206896552</v>
+      </c>
+      <c r="E3">
+        <v>1.066006857855362</v>
+      </c>
+      <c r="F3">
         <v>1.07818653347421</v>
       </c>
-      <c r="E3">
-        <v>1.028039681888989</v>
-      </c>
-      <c r="F3">
-        <v>1.066006857855362</v>
-      </c>
       <c r="G3">
-        <v>1.040036989766571</v>
+        <v>1.040039025063448</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1088,22 +1085,22 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.041226490596239</v>
+        <v>1.079855702221858</v>
       </c>
       <c r="C4">
         <v>1.0337361530715</v>
       </c>
       <c r="D4">
+        <v>1.041221466731423</v>
+      </c>
+      <c r="E4">
+        <v>1.075358478802993</v>
+      </c>
+      <c r="F4">
         <v>1.091441744308904</v>
       </c>
-      <c r="E4">
-        <v>1.079855702221858</v>
-      </c>
-      <c r="F4">
-        <v>1.075358478802993</v>
-      </c>
       <c r="G4">
-        <v>1.064323713800299</v>
+        <v>1.064322709027336</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1117,22 +1114,22 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.048069227691076</v>
+        <v>1.063786176928753</v>
       </c>
       <c r="C5">
         <v>1.02639907926917</v>
       </c>
       <c r="D5">
+        <v>1.048081593006314</v>
+      </c>
+      <c r="E5">
+        <v>1.09180174563591</v>
+      </c>
+      <c r="F5">
         <v>1.079195082124676</v>
       </c>
-      <c r="E5">
-        <v>1.063786176928753</v>
-      </c>
-      <c r="F5">
-        <v>1.09180174563591</v>
-      </c>
       <c r="G5">
-        <v>1.061850262329917</v>
+        <v>1.061852735392965</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1146,22 +1143,22 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.068367346938775</v>
+        <v>1.072886775436583</v>
       </c>
       <c r="C6">
         <v>1.041145158969932</v>
       </c>
       <c r="D6">
+        <v>1.068388780961632</v>
+      </c>
+      <c r="E6">
+        <v>1.118609725685786</v>
+      </c>
+      <c r="F6">
         <v>1.111756795696859</v>
       </c>
-      <c r="E6">
-        <v>1.072886775436583</v>
-      </c>
-      <c r="F6">
-        <v>1.118609725685786</v>
-      </c>
       <c r="G6">
-        <v>1.082553160545587</v>
+        <v>1.082557447350158</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1175,22 +1172,22 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.055042016806723</v>
+        <v>1.069935229974584</v>
       </c>
       <c r="C7">
         <v>1.049201553733276</v>
       </c>
       <c r="D7">
+        <v>1.055063137445362</v>
+      </c>
+      <c r="E7">
+        <v>1.088606608478803</v>
+      </c>
+      <c r="F7">
         <v>1.098261454231102</v>
       </c>
-      <c r="E7">
-        <v>1.069935229974584</v>
-      </c>
-      <c r="F7">
-        <v>1.088606608478803</v>
-      </c>
       <c r="G7">
-        <v>1.072209372644898</v>
+        <v>1.072213596772625</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1204,22 +1201,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.048319327731092</v>
+        <v>1.087808477494466</v>
       </c>
       <c r="C8">
         <v>1.029707955689829</v>
       </c>
       <c r="D8">
+        <v>1.048324429334628</v>
+      </c>
+      <c r="E8">
+        <v>1.052602867830424</v>
+      </c>
+      <c r="F8">
         <v>1.055998463163961</v>
       </c>
-      <c r="E8">
-        <v>1.087808477494466</v>
-      </c>
-      <c r="F8">
-        <v>1.052602867830424</v>
-      </c>
       <c r="G8">
-        <v>1.054887418381955</v>
+        <v>1.054888438702662</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1233,22 +1230,22 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.07547018807523</v>
+        <v>1.1151922603919</v>
       </c>
       <c r="C9">
         <v>1.065242411163861</v>
       </c>
       <c r="D9">
+        <v>1.075491743564837</v>
+      </c>
+      <c r="E9">
+        <v>1.094996882793018</v>
+      </c>
+      <c r="F9">
         <v>1.083181250600327</v>
       </c>
-      <c r="E9">
-        <v>1.1151922603919</v>
-      </c>
-      <c r="F9">
-        <v>1.094996882793018</v>
-      </c>
       <c r="G9">
-        <v>1.086816598604867</v>
+        <v>1.086820909702789</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1262,22 +1259,22 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.059133653461384</v>
+        <v>1.136590964991391</v>
       </c>
       <c r="C10">
         <v>1.073514602215508</v>
       </c>
       <c r="D10">
+        <v>1.059130645944633</v>
+      </c>
+      <c r="E10">
+        <v>1.079021197007481</v>
+      </c>
+      <c r="F10">
         <v>1.045961002785516</v>
       </c>
-      <c r="E10">
-        <v>1.136590964991391</v>
-      </c>
-      <c r="F10">
-        <v>1.079021197007481</v>
-      </c>
       <c r="G10">
-        <v>1.078844284092256</v>
+        <v>1.078843682588906</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1291,22 +1288,22 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.034553821528611</v>
+        <v>1.132819545789948</v>
       </c>
       <c r="C11">
         <v>1.051647245000719</v>
       </c>
       <c r="D11">
+        <v>1.034573822243808</v>
+      </c>
+      <c r="E11">
+        <v>1.017534289276808</v>
+      </c>
+      <c r="F11">
         <v>1.018345980213236</v>
       </c>
-      <c r="E11">
-        <v>1.132819545789948</v>
-      </c>
-      <c r="F11">
-        <v>1.017534289276808</v>
-      </c>
       <c r="G11">
-        <v>1.050980176361865</v>
+        <v>1.050984176504904</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1320,22 +1317,22 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.022779111644658</v>
+        <v>1.110436992703124</v>
       </c>
       <c r="C12">
         <v>1.056394763343404</v>
       </c>
       <c r="D12">
+        <v>1.022796260320544</v>
+      </c>
+      <c r="E12">
+        <v>1.009741271820449</v>
+      </c>
+      <c r="F12">
         <v>1.040678128902123</v>
       </c>
-      <c r="E12">
-        <v>1.110436992703124</v>
-      </c>
-      <c r="F12">
-        <v>1.009741271820449</v>
-      </c>
       <c r="G12">
-        <v>1.048006053682752</v>
+        <v>1.048009483417929</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1349,22 +1346,22 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.023189275710284</v>
+        <v>1.176026891858654</v>
       </c>
       <c r="C13">
         <v>1.069486404833837</v>
       </c>
       <c r="D13">
+        <v>1.023190869354055</v>
+      </c>
+      <c r="E13">
+        <v>1.031873441396509</v>
+      </c>
+      <c r="F13">
         <v>1.050859667659207</v>
       </c>
-      <c r="E13">
-        <v>1.176026891858654</v>
-      </c>
-      <c r="F13">
-        <v>1.031873441396509</v>
-      </c>
       <c r="G13">
-        <v>1.070287136291698</v>
+        <v>1.070287455020452</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1378,22 +1375,22 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.002250900360144</v>
+        <v>1.157251783225383</v>
       </c>
       <c r="C14">
         <v>1.051359516616314</v>
       </c>
       <c r="D14">
+        <v>1.002246236036911</v>
+      </c>
+      <c r="E14">
+        <v>1.009273690773067</v>
+      </c>
+      <c r="F14">
         <v>1.02165978292191</v>
       </c>
-      <c r="E14">
-        <v>1.157251783225383</v>
-      </c>
-      <c r="F14">
-        <v>1.009273690773067</v>
-      </c>
       <c r="G14">
-        <v>1.048359134779364</v>
+        <v>1.048358201914717</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1407,22 +1404,22 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.018827531012405</v>
+        <v>1.167582192342379</v>
       </c>
       <c r="C15">
         <v>1.054308732556467</v>
       </c>
       <c r="D15">
+        <v>1.01885016998543</v>
+      </c>
+      <c r="E15">
+        <v>1.02930174563591</v>
+      </c>
+      <c r="F15">
         <v>1.069685909134569</v>
       </c>
-      <c r="E15">
-        <v>1.167582192342379</v>
-      </c>
-      <c r="F15">
-        <v>1.02930174563591</v>
-      </c>
       <c r="G15">
-        <v>1.067941222136346</v>
+        <v>1.067945749930951</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1436,22 +1433,22 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.037945178071229</v>
+        <v>1.168320078707879</v>
       </c>
       <c r="C16">
         <v>1.071428571428571</v>
       </c>
       <c r="D16">
+        <v>1.037943176299174</v>
+      </c>
+      <c r="E16">
+        <v>1.039043017456359</v>
+      </c>
+      <c r="F16">
         <v>1.099029872250505</v>
       </c>
-      <c r="E16">
-        <v>1.168320078707879</v>
-      </c>
-      <c r="F16">
-        <v>1.039043017456359</v>
-      </c>
       <c r="G16">
-        <v>1.083153343582909</v>
+        <v>1.083152943228498</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1465,22 +1462,22 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.059903961584634</v>
+        <v>1.154054275641551</v>
       </c>
       <c r="C17">
         <v>1.06855128758452</v>
       </c>
       <c r="D17">
+        <v>1.059919864011656</v>
+      </c>
+      <c r="E17">
+        <v>1.041536783042394</v>
+      </c>
+      <c r="F17">
         <v>1.13019882816252</v>
       </c>
-      <c r="E17">
-        <v>1.154054275641551</v>
-      </c>
-      <c r="F17">
-        <v>1.041536783042394</v>
-      </c>
       <c r="G17">
-        <v>1.090849027203124</v>
+        <v>1.090852207688529</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1494,22 +1491,22 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.084563825530212</v>
+        <v>1.139214560957613</v>
       </c>
       <c r="C18">
         <v>1.070421522083153</v>
       </c>
       <c r="D18">
+        <v>1.0845677513356</v>
+      </c>
+      <c r="E18">
+        <v>1.042939526184539</v>
+      </c>
+      <c r="F18">
         <v>1.1354336759197</v>
       </c>
-      <c r="E18">
-        <v>1.139214560957613</v>
-      </c>
-      <c r="F18">
-        <v>1.042939526184539</v>
-      </c>
       <c r="G18">
-        <v>1.094514622135043</v>
+        <v>1.094515407296121</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1523,22 +1520,22 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>1.055452180872349</v>
+        <v>1.113634500286956</v>
       </c>
       <c r="C19">
         <v>1.042511868795857</v>
       </c>
       <c r="D19">
+        <v>1.055457746478873</v>
+      </c>
+      <c r="E19">
+        <v>0.9736596009975064</v>
+      </c>
+      <c r="F19">
         <v>1.107674574968783</v>
       </c>
-      <c r="E19">
-        <v>1.113634500286956</v>
-      </c>
-      <c r="F19">
-        <v>0.9736596009975064</v>
-      </c>
       <c r="G19">
-        <v>1.05858654518429</v>
+        <v>1.058587658305595</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1552,22 +1549,22 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>1.051300520208083</v>
+        <v>1.107731409362958</v>
       </c>
       <c r="C20">
         <v>1.043303121852971</v>
       </c>
       <c r="D20">
+        <v>1.051299174356484</v>
+      </c>
+      <c r="E20">
+        <v>0.971243765586035</v>
+      </c>
+      <c r="F20">
         <v>1.120785707424839</v>
       </c>
-      <c r="E20">
-        <v>1.107731409362958</v>
-      </c>
-      <c r="F20">
-        <v>0.971243765586035</v>
-      </c>
       <c r="G20">
-        <v>1.058872904886977</v>
+        <v>1.058872635716657</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1581,22 +1578,22 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>1.027000800320128</v>
+        <v>1.06075264409281</v>
       </c>
       <c r="C21">
         <v>1.008703783628255</v>
       </c>
       <c r="D21">
+        <v>1.027015541525012</v>
+      </c>
+      <c r="E21">
+        <v>0.9569046134663343</v>
+      </c>
+      <c r="F21">
         <v>1.073191816348093</v>
       </c>
-      <c r="E21">
-        <v>1.06075264409281</v>
-      </c>
-      <c r="F21">
-        <v>0.9569046134663343</v>
-      </c>
       <c r="G21">
-        <v>1.025310731571124</v>
+        <v>1.025313679812101</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1610,22 +1607,22 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>1.025380152060824</v>
+        <v>1.03976387636304</v>
       </c>
       <c r="C22">
         <v>1.001654438210329</v>
       </c>
       <c r="D22">
+        <v>1.025376396308888</v>
+      </c>
+      <c r="E22">
+        <v>0.9264339152119702</v>
+      </c>
+      <c r="F22">
         <v>1.052300451445586</v>
       </c>
-      <c r="E22">
-        <v>1.03976387636304</v>
-      </c>
-      <c r="F22">
-        <v>0.9264339152119702</v>
-      </c>
       <c r="G22">
-        <v>1.00910656665835</v>
+        <v>1.009105815507963</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1639,22 +1636,22 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>1.030882352941177</v>
+        <v>1.045502992539149</v>
       </c>
       <c r="C23">
         <v>1.010789814415192</v>
       </c>
       <c r="D23">
+        <v>1.030900922778047</v>
+      </c>
+      <c r="E23">
+        <v>0.9218360349127184</v>
+      </c>
+      <c r="F23">
         <v>1.048554413600999</v>
       </c>
-      <c r="E23">
-        <v>1.045502992539149</v>
-      </c>
-      <c r="F23">
-        <v>0.9218360349127184</v>
-      </c>
       <c r="G23">
-        <v>1.011513121681847</v>
+        <v>1.011516835649221</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1668,22 +1665,22 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>1.06327531012405</v>
+        <v>1.054603591046979</v>
       </c>
       <c r="C24">
         <v>1.038052078837577</v>
       </c>
       <c r="D24">
+        <v>1.063289218067023</v>
+      </c>
+      <c r="E24">
+        <v>0.9368765586034913</v>
+      </c>
+      <c r="F24">
         <v>1.10436077226011</v>
       </c>
-      <c r="E24">
-        <v>1.054603591046979</v>
-      </c>
-      <c r="F24">
-        <v>0.9368765586034913</v>
-      </c>
       <c r="G24">
-        <v>1.039433662174441</v>
+        <v>1.039436443763036</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1697,22 +1694,22 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>1.061634653861545</v>
+        <v>1.015741575797327</v>
       </c>
       <c r="C25">
         <v>1.028341245863904</v>
       </c>
       <c r="D25">
+        <v>1.061650072850898</v>
+      </c>
+      <c r="E25">
+        <v>0.9064058603491273</v>
+      </c>
+      <c r="F25">
         <v>1.104120641629046</v>
       </c>
-      <c r="E25">
-        <v>1.015741575797327</v>
-      </c>
-      <c r="F25">
-        <v>0.9064058603491273</v>
-      </c>
       <c r="G25">
-        <v>1.02324879550019</v>
+        <v>1.023251879298061</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1726,22 +1723,22 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>1.054521808723489</v>
+        <v>1.014101828318439</v>
       </c>
       <c r="C26">
         <v>1.022874406560207</v>
       </c>
       <c r="D26">
+        <v>1.054547110247693</v>
+      </c>
+      <c r="E26">
+        <v>0.8935473815461348</v>
+      </c>
+      <c r="F26">
         <v>1.0789069253674</v>
       </c>
-      <c r="E26">
-        <v>1.014101828318439</v>
-      </c>
-      <c r="F26">
-        <v>0.8935473815461348</v>
-      </c>
       <c r="G26">
-        <v>1.012790470103134</v>
+        <v>1.012795530407975</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1755,22 +1752,22 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>1.067757102841136</v>
+        <v>0.9888497171435598</v>
       </c>
       <c r="C27">
         <v>1.025751690404258</v>
       </c>
       <c r="D27">
+        <v>1.067781690140845</v>
+      </c>
+      <c r="E27">
+        <v>0.8753117206982545</v>
+      </c>
+      <c r="F27">
         <v>1.040774181154548</v>
       </c>
-      <c r="E27">
-        <v>0.9888497171435598</v>
-      </c>
-      <c r="F27">
-        <v>0.8753117206982545</v>
-      </c>
       <c r="G27">
-        <v>0.9996888824483515</v>
+        <v>0.9996937999082931</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1784,22 +1781,22 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>1.085244097639056</v>
+        <v>1.017709272771993</v>
       </c>
       <c r="C28">
         <v>1.02639907926917</v>
       </c>
       <c r="D28">
+        <v>1.085265905779505</v>
+      </c>
+      <c r="E28">
+        <v>0.8789744389027432</v>
+      </c>
+      <c r="F28">
         <v>1.066420132552108</v>
       </c>
-      <c r="E28">
-        <v>1.017709272771993</v>
-      </c>
-      <c r="F28">
-        <v>0.8789744389027432</v>
-      </c>
       <c r="G28">
-        <v>1.014949404227014</v>
+        <v>1.014953765855104</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1813,22 +1810,22 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>1.11171468587435</v>
+        <v>1.032057063212265</v>
       </c>
       <c r="C29">
         <v>1.045245288447705</v>
       </c>
       <c r="D29">
+        <v>1.111735065565809</v>
+      </c>
+      <c r="E29">
+        <v>0.9283821695760599</v>
+      </c>
+      <c r="F29">
         <v>1.100374603784459</v>
       </c>
-      <c r="E29">
-        <v>1.032057063212265</v>
-      </c>
-      <c r="F29">
-        <v>0.9283821695760599</v>
-      </c>
       <c r="G29">
-        <v>1.043554762178968</v>
+        <v>1.04355883811726</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1842,22 +1839,22 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>1.143237294917967</v>
+        <v>1.040091825858818</v>
       </c>
       <c r="C30">
         <v>1.05732988059272</v>
       </c>
       <c r="D30">
+        <v>1.143243079164643</v>
+      </c>
+      <c r="E30">
+        <v>0.9240960099750624</v>
+      </c>
+      <c r="F30">
         <v>1.116319277687062</v>
       </c>
-      <c r="E30">
-        <v>1.040091825858818</v>
-      </c>
-      <c r="F30">
-        <v>0.9240960099750624</v>
-      </c>
       <c r="G30">
-        <v>1.056214857806326</v>
+        <v>1.056216014655661</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1871,22 +1868,22 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.111154461784714</v>
+        <v>1.065507911781586</v>
       </c>
       <c r="C31">
         <v>1.035462523377931</v>
       </c>
       <c r="D31">
+        <v>1.111158329286061</v>
+      </c>
+      <c r="E31">
+        <v>0.9183291770573566</v>
+      </c>
+      <c r="F31">
         <v>1.101239074056287</v>
       </c>
-      <c r="E31">
-        <v>1.065507911781586</v>
-      </c>
-      <c r="F31">
-        <v>0.9183291770573566</v>
-      </c>
       <c r="G31">
-        <v>1.046338629611575</v>
+        <v>1.046339403111844</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1900,22 +1897,22 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.107052821128451</v>
+        <v>1.060342707223088</v>
       </c>
       <c r="C32">
         <v>1.032441375341677</v>
       </c>
       <c r="D32">
+        <v>1.10706046624575</v>
+      </c>
+      <c r="E32">
+        <v>0.921524314214464</v>
+      </c>
+      <c r="F32">
         <v>1.07674574968783</v>
       </c>
-      <c r="E32">
-        <v>1.060342707223088</v>
-      </c>
-      <c r="F32">
-        <v>0.921524314214464</v>
-      </c>
       <c r="G32">
-        <v>1.039621393519102</v>
+        <v>1.039622922542562</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1929,22 +1926,22 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>1.048339335734294</v>
+        <v>1.033122899073543</v>
       </c>
       <c r="C33">
         <v>0.9864767659329592</v>
       </c>
       <c r="D33">
+        <v>1.048354783875668</v>
+      </c>
+      <c r="E33">
+        <v>0.8913653366583542</v>
+      </c>
+      <c r="F33">
         <v>1.056910959562002</v>
       </c>
-      <c r="E33">
-        <v>1.033122899073543</v>
-      </c>
-      <c r="F33">
-        <v>0.8913653366583542</v>
-      </c>
       <c r="G33">
-        <v>1.00324305939223</v>
+        <v>1.003246149020505</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1958,22 +1955,22 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>1.040916366546619</v>
+        <v>1.021480691973436</v>
       </c>
       <c r="C34">
         <v>0.9871241547978707</v>
       </c>
       <c r="D34">
+        <v>1.04091792132103</v>
+      </c>
+      <c r="E34">
+        <v>0.9158354114713217</v>
+      </c>
+      <c r="F34">
         <v>1.033618288348862</v>
       </c>
-      <c r="E34">
-        <v>1.021480691973436</v>
-      </c>
-      <c r="F34">
-        <v>0.9158354114713217</v>
-      </c>
       <c r="G34">
-        <v>0.9997949826276218</v>
+        <v>0.9997952935825041</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1987,22 +1984,22 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>1.00406162464986</v>
+        <v>1.029597441993933</v>
       </c>
       <c r="C35">
         <v>0.991296216371745</v>
       </c>
       <c r="D35">
+        <v>1.004067508499271</v>
+      </c>
+      <c r="E35">
+        <v>0.9159912718204489</v>
+      </c>
+      <c r="F35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="E35">
-        <v>1.029597441993933</v>
-      </c>
-      <c r="F35">
-        <v>0.9159912718204489</v>
-      </c>
       <c r="G35">
-        <v>0.9847026142041584</v>
+        <v>0.9847037909740407</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -2016,22 +2013,22 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>1.000520208083233</v>
+        <v>1.02098876772977</v>
       </c>
       <c r="C36">
         <v>0.9933822471586822</v>
       </c>
       <c r="D36">
+        <v>1.000516027197669</v>
+      </c>
+      <c r="E36">
+        <v>0.9336814214463841</v>
+      </c>
+      <c r="F36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="E36">
-        <v>1.02098876772977</v>
-      </c>
-      <c r="F36">
-        <v>0.9336814214463841</v>
-      </c>
       <c r="G36">
-        <v>0.982222453194439</v>
+        <v>0.9822216170173261</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2045,22 +2042,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>0.979091636654662</v>
+        <v>1.005985078297942</v>
       </c>
       <c r="C37">
         <v>0.974104445403539</v>
       </c>
       <c r="D37">
+        <v>0.9791160757649344</v>
+      </c>
+      <c r="E37">
+        <v>0.9023534912718205</v>
+      </c>
+      <c r="F37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="E37">
-        <v>1.005985078297942</v>
-      </c>
-      <c r="F37">
-        <v>0.9023534912718205</v>
-      </c>
       <c r="G37">
-        <v>0.9598009270598163</v>
+        <v>0.9598058148818708</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2074,22 +2071,22 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>0.9917667066826731</v>
+        <v>1.043125358694761</v>
       </c>
       <c r="C38">
         <v>0.9908646237951373</v>
       </c>
       <c r="D38">
+        <v>0.991773919378339</v>
+      </c>
+      <c r="E38">
+        <v>0.9193422693266834</v>
+      </c>
+      <c r="F38">
         <v>0.980981654019787</v>
       </c>
-      <c r="E38">
-        <v>1.043125358694761</v>
-      </c>
-      <c r="F38">
-        <v>0.9193422693266834</v>
-      </c>
       <c r="G38">
-        <v>0.9852161225038084</v>
+        <v>0.9852175650429416</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2103,22 +2100,22 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>0.9720588235294118</v>
+        <v>1.054111666803312</v>
       </c>
       <c r="C39">
         <v>0.9925190620054667</v>
       </c>
       <c r="D39">
+        <v>0.9720738222438077</v>
+      </c>
+      <c r="E39">
+        <v>0.9259663341645885</v>
+      </c>
+      <c r="F39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="E39">
-        <v>1.054111666803312</v>
-      </c>
-      <c r="F39">
-        <v>0.9259663341645885</v>
-      </c>
       <c r="G39">
-        <v>0.9850794819783006</v>
+        <v>0.9850824817211797</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2132,22 +2129,22 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>0.9855342136854741</v>
+        <v>1.05517750266459</v>
       </c>
       <c r="C40">
         <v>0.9920874694288591</v>
       </c>
       <c r="D40">
+        <v>0.9855512384652744</v>
+      </c>
+      <c r="E40">
+        <v>0.9240960099750624</v>
+      </c>
+      <c r="F40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="E40">
-        <v>1.05517750266459</v>
-      </c>
-      <c r="F40">
-        <v>0.9240960099750624</v>
-      </c>
       <c r="G40">
-        <v>0.9896212829314137</v>
+        <v>0.9896246878873738</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2161,22 +2158,22 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>0.9455082032813125</v>
+        <v>1.017791260145938</v>
       </c>
       <c r="C41">
         <v>0.9651848654869803</v>
       </c>
       <c r="D41">
+        <v>0.9455135988343856</v>
+      </c>
+      <c r="E41">
+        <v>0.9117051122194514</v>
+      </c>
+      <c r="F41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="E41">
-        <v>1.017791260145938</v>
-      </c>
-      <c r="F41">
-        <v>0.9117051122194514</v>
-      </c>
       <c r="G41">
-        <v>0.9547538617163148</v>
+        <v>0.9547549408269295</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2190,22 +2187,22 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>0.9474989995998399</v>
+        <v>1.008936623759941</v>
       </c>
       <c r="C42">
         <v>0.9661919148323981</v>
       </c>
       <c r="D42">
+        <v>0.9475169985429821</v>
+      </c>
+      <c r="E42">
+        <v>0.892534289276808</v>
+      </c>
+      <c r="F42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="E42">
-        <v>1.008936623759941</v>
-      </c>
-      <c r="F42">
-        <v>0.892534289276808</v>
-      </c>
       <c r="G42">
-        <v>0.9497003128571632</v>
+        <v>0.9497039126457916</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2219,22 +2216,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>0.8956182472989196</v>
+        <v>0.9645814544560138</v>
       </c>
       <c r="C43">
         <v>0.9448280822903178</v>
       </c>
       <c r="D43">
+        <v>0.8956410879067509</v>
+      </c>
+      <c r="E43">
+        <v>0.8323721945137158</v>
+      </c>
+      <c r="F43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="E43">
-        <v>0.9645814544560138</v>
-      </c>
-      <c r="F43">
-        <v>0.8323721945137158</v>
-      </c>
       <c r="G43">
-        <v>0.904341008102534</v>
+        <v>0.9043455762241003</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2248,22 +2245,22 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>0.8801020408163265</v>
+        <v>0.9153070427154218</v>
       </c>
       <c r="C44">
         <v>0.9348295209322399</v>
       </c>
       <c r="D44">
+        <v>0.880099562894609</v>
+      </c>
+      <c r="E44">
+        <v>0.7886533665835412</v>
+      </c>
+      <c r="F44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="E44">
-        <v>0.9153070427154218</v>
-      </c>
-      <c r="F44">
-        <v>0.7886533665835412</v>
-      </c>
       <c r="G44">
-        <v>0.877594550198364</v>
+        <v>0.8775940546140204</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2277,22 +2274,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>0.8999499799919968</v>
+        <v>0.9161269164548659</v>
       </c>
       <c r="C45">
         <v>0.9394331750827218</v>
       </c>
       <c r="D45">
+        <v>0.899951432734337</v>
+      </c>
+      <c r="E45">
+        <v>0.7831203241895262</v>
+      </c>
+      <c r="F45">
         <v>0.890500432235136</v>
       </c>
-      <c r="E45">
-        <v>0.9161269164548659</v>
-      </c>
-      <c r="F45">
-        <v>0.7831203241895262</v>
-      </c>
       <c r="G45">
-        <v>0.8858261655908494</v>
+        <v>0.8858264561393174</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2306,22 +2303,22 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>0.921468587434974</v>
+        <v>0.9453144215790769</v>
       </c>
       <c r="C46">
         <v>0.9529564091497625</v>
       </c>
       <c r="D46">
+        <v>0.9214728023312287</v>
+      </c>
+      <c r="E46">
+        <v>0.7966801745635911</v>
+      </c>
+      <c r="F46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="E46">
-        <v>0.9453144215790769</v>
-      </c>
-      <c r="F46">
-        <v>0.7966801745635911</v>
-      </c>
       <c r="G46">
-        <v>0.9066476684254157</v>
+        <v>0.9066485114046666</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2335,22 +2332,22 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>0.9221688675470188</v>
+        <v>0.9303107321472494</v>
       </c>
       <c r="C47">
         <v>0.9540353905912818</v>
       </c>
       <c r="D47">
+        <v>0.9221709567751335</v>
+      </c>
+      <c r="E47">
+        <v>0.7906795511221946</v>
+      </c>
+      <c r="F47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="E47">
-        <v>0.9303107321472494</v>
-      </c>
-      <c r="F47">
-        <v>0.7906795511221946</v>
-      </c>
       <c r="G47">
-        <v>0.9035902866313713</v>
+        <v>0.9035907044769942</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2364,22 +2361,22 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>0.891296518607443</v>
+        <v>0.8900549315405427</v>
       </c>
       <c r="C48">
         <v>0.9337505394907207</v>
       </c>
       <c r="D48">
+        <v>0.8913003885381253</v>
+      </c>
+      <c r="E48">
+        <v>0.7855361596009975</v>
+      </c>
+      <c r="F48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="E48">
-        <v>0.8900549315405427</v>
-      </c>
-      <c r="F48">
-        <v>0.7855361596009975</v>
-      </c>
       <c r="G48">
-        <v>0.8786023200794267</v>
+        <v>0.8786030940655634</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2393,22 +2390,22 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>0.9025510204081633</v>
+        <v>0.8844797901123227</v>
       </c>
       <c r="C49">
         <v>0.9460509279240396</v>
       </c>
       <c r="D49">
+        <v>0.9025619232637202</v>
+      </c>
+      <c r="E49">
+        <v>0.7842113466334165</v>
+      </c>
+      <c r="F49">
         <v>0.894870809720488</v>
       </c>
-      <c r="E49">
-        <v>0.8844797901123227</v>
-      </c>
-      <c r="F49">
-        <v>0.7842113466334165</v>
-      </c>
       <c r="G49">
-        <v>0.882432778959686</v>
+        <v>0.8824349595307974</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2422,22 +2419,22 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>0.913765506202481</v>
+        <v>0.9112076740182011</v>
       </c>
       <c r="C50">
         <v>0.9653287296791828</v>
       </c>
       <c r="D50">
+        <v>0.9137627489072365</v>
+      </c>
+      <c r="E50">
+        <v>0.7973815461346635</v>
+      </c>
+      <c r="F50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="E50">
-        <v>0.9112076740182011</v>
-      </c>
-      <c r="F50">
-        <v>0.7973815461346635</v>
-      </c>
       <c r="G50">
-        <v>0.9010253090149933</v>
+        <v>0.9010247575559446</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2451,22 +2448,22 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>0.9281512605042016</v>
+        <v>0.9121095351315898</v>
       </c>
       <c r="C51">
         <v>0.9708675010789813</v>
       </c>
       <c r="D51">
+        <v>0.9281508013598835</v>
+      </c>
+      <c r="E51">
+        <v>0.8066552369077307</v>
+      </c>
+      <c r="F51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="E51">
-        <v>0.9121095351315898</v>
-      </c>
-      <c r="F51">
-        <v>0.8066552369077307</v>
-      </c>
       <c r="G51">
-        <v>0.907708085074323</v>
+        <v>0.9077079932454594</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2480,22 +2477,22 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>0.9075830332132854</v>
+        <v>0.9044847093547593</v>
       </c>
       <c r="C52">
         <v>0.9544669831678895</v>
       </c>
       <c r="D52">
+        <v>0.9076007770762506</v>
+      </c>
+      <c r="E52">
+        <v>0.8120324189526186</v>
+      </c>
+      <c r="F52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="E52">
-        <v>0.9044847093547593</v>
-      </c>
-      <c r="F52">
-        <v>0.8120324189526186</v>
-      </c>
       <c r="G52">
-        <v>0.8937366735827975</v>
+        <v>0.8937402223553905</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2509,22 +2506,22 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>0.9131252501000399</v>
+        <v>0.9064524063294251</v>
       </c>
       <c r="C53">
         <v>0.9650410012947775</v>
       </c>
       <c r="D53">
+        <v>0.9131253035454104</v>
+      </c>
+      <c r="E53">
+        <v>0.8185006234413966</v>
+      </c>
+      <c r="F53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="E53">
-        <v>0.9064524063294251</v>
-      </c>
-      <c r="F53">
-        <v>0.8185006234413966</v>
-      </c>
       <c r="G53">
-        <v>0.9008947235849672</v>
+        <v>0.9008947342740414</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2538,22 +2535,22 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>0.9053421368547419</v>
+        <v>0.9062884315815364</v>
       </c>
       <c r="C54">
         <v>0.956624946050928</v>
       </c>
       <c r="D54">
+        <v>0.9053545410393395</v>
+      </c>
+      <c r="E54">
+        <v>0.8129675810473815</v>
+      </c>
+      <c r="F54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="E54">
-        <v>0.9062884315815364</v>
-      </c>
-      <c r="F54">
-        <v>0.8129675810473815</v>
-      </c>
       <c r="G54">
-        <v>0.8898782758161674</v>
+        <v>0.889880756653087</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2567,22 +2564,22 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.8951180472188875</v>
+        <v>0.8854636385996557</v>
       </c>
       <c r="C55">
         <v>0.9555459646094087</v>
       </c>
       <c r="D55">
+        <v>0.8951250607090822</v>
+      </c>
+      <c r="E55">
+        <v>0.7979270573566085</v>
+      </c>
+      <c r="F55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="E55">
-        <v>0.8854636385996557</v>
-      </c>
-      <c r="F55">
-        <v>0.7979270573566085</v>
-      </c>
       <c r="G55">
-        <v>0.8745085690662773</v>
+        <v>0.8745099717643161</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2596,22 +2593,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.9021608643457384</v>
+        <v>0.8933344264983192</v>
       </c>
       <c r="C56">
         <v>0.9510861746511293</v>
       </c>
       <c r="D56">
+        <v>0.9021673142302089</v>
+      </c>
+      <c r="E56">
+        <v>0.8013559850374066</v>
+      </c>
+      <c r="F56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="E56">
-        <v>0.8933344264983192</v>
-      </c>
-      <c r="F56">
-        <v>0.8013559850374066</v>
-      </c>
       <c r="G56">
-        <v>0.8800610277109755</v>
+        <v>0.8800623176878697</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2625,22 +2622,22 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>0.9293717486994798</v>
+        <v>0.9111256866442567</v>
       </c>
       <c r="C57">
         <v>0.972809667673716</v>
       </c>
       <c r="D57">
+        <v>0.9293953375424964</v>
+      </c>
+      <c r="E57">
+        <v>0.8143703241895262</v>
+      </c>
+      <c r="F57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="E57">
-        <v>0.9111256866442567</v>
-      </c>
-      <c r="F57">
-        <v>0.8143703241895262</v>
-      </c>
       <c r="G57">
-        <v>0.904519252610736</v>
+        <v>0.9045239703793393</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2654,22 +2651,22 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>0.9314725890356143</v>
+        <v>0.9156349922111995</v>
       </c>
       <c r="C58">
         <v>0.9838872104733131</v>
       </c>
       <c r="D58">
+        <v>0.9314898008742108</v>
+      </c>
+      <c r="E58">
+        <v>0.8287874064837905</v>
+      </c>
+      <c r="F58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="E58">
-        <v>0.9156349922111995</v>
-      </c>
-      <c r="F58">
-        <v>0.8287874064837905</v>
-      </c>
       <c r="G58">
-        <v>0.9087598206800689</v>
+        <v>0.9087632630477882</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2683,22 +2680,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>0.9447979191676671</v>
+        <v>0.9175207018119209</v>
       </c>
       <c r="C59">
         <v>0.984894259818731</v>
       </c>
       <c r="D59">
+        <v>0.9448154443904808</v>
+      </c>
+      <c r="E59">
+        <v>0.8463996259351622</v>
+      </c>
+      <c r="F59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="E59">
-        <v>0.9175207018119209</v>
-      </c>
-      <c r="F59">
-        <v>0.8463996259351622</v>
-      </c>
       <c r="G59">
-        <v>0.9180040304985548</v>
+        <v>0.9180075355431176</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2712,22 +2709,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>0.9352340936374549</v>
+        <v>0.9153070427154218</v>
       </c>
       <c r="C60">
         <v>0.9939577039274923</v>
       </c>
       <c r="D60">
+        <v>0.9352537639630889</v>
+      </c>
+      <c r="E60">
+        <v>0.8123441396508729</v>
+      </c>
+      <c r="F60">
         <v>0.883872826817789</v>
       </c>
-      <c r="E60">
-        <v>0.9153070427154218</v>
-      </c>
-      <c r="F60">
-        <v>0.8123441396508729</v>
-      </c>
       <c r="G60">
-        <v>0.9081431613498062</v>
+        <v>0.9081470954149331</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2741,22 +2738,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>0.9552921168467386</v>
+        <v>0.9526112978601294</v>
       </c>
       <c r="C61">
         <v>1.003812401093368</v>
       </c>
       <c r="D61">
+        <v>0.955287761049053</v>
+      </c>
+      <c r="E61">
+        <v>0.8189682044887781</v>
+      </c>
+      <c r="F61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="E61">
-        <v>0.9526112978601294</v>
-      </c>
-      <c r="F61">
-        <v>0.8189682044887781</v>
-      </c>
       <c r="G61">
-        <v>0.9263020139319744</v>
+        <v>0.9263011427724372</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2770,22 +2767,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>0.9748299319727892</v>
+        <v>1.001721734852833</v>
       </c>
       <c r="C62">
         <v>1.011437203280103</v>
       </c>
       <c r="D62">
+        <v>0.9748360854783876</v>
+      </c>
+      <c r="E62">
+        <v>0.8223192019950125</v>
+      </c>
+      <c r="F62">
         <v>0.913937181826914</v>
       </c>
-      <c r="E62">
-        <v>1.001721734852833</v>
-      </c>
-      <c r="F62">
-        <v>0.8223192019950125</v>
-      </c>
       <c r="G62">
-        <v>0.9448490507855304</v>
+        <v>0.94485028148665</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2799,22 +2796,22 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>0.9630552220888355</v>
+        <v>0.9954906944330573</v>
       </c>
       <c r="C63">
         <v>1.004675586246583</v>
       </c>
       <c r="D63">
+        <v>0.9630585235551238</v>
+      </c>
+      <c r="E63">
+        <v>0.8305018703241897</v>
+      </c>
+      <c r="F63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="E63">
-        <v>0.9954906944330573</v>
-      </c>
-      <c r="F63">
-        <v>0.8305018703241897</v>
-      </c>
       <c r="G63">
-        <v>0.9424061864809864</v>
+        <v>0.942406846774244</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2828,22 +2825,22 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>0.9513705482192877</v>
+        <v>0.995244732311224</v>
       </c>
       <c r="C64">
         <v>1.001007049345418</v>
       </c>
       <c r="D64">
+        <v>0.9513720252549781</v>
+      </c>
+      <c r="E64">
+        <v>0.8252805486284289</v>
+      </c>
+      <c r="F64">
         <v>0.911391797137643</v>
       </c>
-      <c r="E64">
-        <v>0.995244732311224</v>
-      </c>
-      <c r="F64">
-        <v>0.8252805486284289</v>
-      </c>
       <c r="G64">
-        <v>0.9368589351284002</v>
+        <v>0.9368592305355383</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2857,22 +2854,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>0.9649759903961583</v>
+        <v>0.9926211363450029</v>
       </c>
       <c r="C65">
         <v>1.004459789958279</v>
       </c>
       <c r="D65">
+        <v>0.9649708596406021</v>
+      </c>
+      <c r="E65">
+        <v>0.823176433915212</v>
+      </c>
+      <c r="F65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="E65">
-        <v>0.9926211363450029</v>
-      </c>
-      <c r="F65">
-        <v>0.823176433915212</v>
-      </c>
       <c r="G65">
-        <v>0.9383549018009635</v>
+        <v>0.9383538756498523</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2886,22 +2883,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>0.9463985594237695</v>
+        <v>0.9840944494547839</v>
       </c>
       <c r="C66">
         <v>0.9979139692130627</v>
       </c>
       <c r="D66">
+        <v>0.9463938805245264</v>
+      </c>
+      <c r="E66">
+        <v>0.8278522443890275</v>
+      </c>
+      <c r="F66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="E66">
-        <v>0.9840944494547839</v>
-      </c>
-      <c r="F66">
-        <v>0.8278522443890275</v>
-      </c>
       <c r="G66">
-        <v>0.9293711413936411</v>
+        <v>0.9293702056137925</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2915,22 +2912,22 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>0.93031212484994</v>
+        <v>0.9668771009264573</v>
       </c>
       <c r="C67">
         <v>0.9800028772838441</v>
       </c>
       <c r="D67">
+        <v>0.9303059737736765</v>
+      </c>
+      <c r="E67">
+        <v>0.8005766832917707</v>
+      </c>
+      <c r="F67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="E67">
-        <v>0.9668771009264573</v>
-      </c>
-      <c r="F67">
-        <v>0.8005766832917707</v>
-      </c>
       <c r="G67">
-        <v>0.9076505779408472</v>
+        <v>0.9076493477255945</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2944,22 +2941,22 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.9264705882352939</v>
+        <v>0.9604000983848487</v>
       </c>
       <c r="C68">
         <v>0.9721622788088043</v>
       </c>
       <c r="D68">
+        <v>0.9264813016027198</v>
+      </c>
+      <c r="E68">
+        <v>0.7983167082294265</v>
+      </c>
+      <c r="F68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="E68">
-        <v>0.9604000983848487</v>
-      </c>
-      <c r="F68">
-        <v>0.7983167082294265</v>
-      </c>
       <c r="G68">
-        <v>0.9045849092778278</v>
+        <v>0.9045870519513131</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2973,22 +2970,22 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>0.938265306122449</v>
+        <v>0.9643354923341805</v>
       </c>
       <c r="C69">
         <v>0.9824485685512875</v>
       </c>
       <c r="D69">
+        <v>0.9382892180670228</v>
+      </c>
+      <c r="E69">
+        <v>0.810240024937656</v>
+      </c>
+      <c r="F69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="E69">
-        <v>0.9643354923341805</v>
-      </c>
-      <c r="F69">
-        <v>0.810240024937656</v>
-      </c>
       <c r="G69">
-        <v>0.9203661100671475</v>
+        <v>0.9203708924560623</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -3002,22 +2999,22 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>0.9296418567426971</v>
+        <v>0.9583504140362384</v>
       </c>
       <c r="C70">
         <v>0.9774133218241979</v>
       </c>
       <c r="D70">
+        <v>0.9296381738708112</v>
+      </c>
+      <c r="E70">
+        <v>0.8079800498753117</v>
+      </c>
+      <c r="F70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="E70">
-        <v>0.9583504140362384</v>
-      </c>
-      <c r="F70">
-        <v>0.8079800498753117</v>
-      </c>
       <c r="G70">
-        <v>0.9156587825154758</v>
+        <v>0.9156580459410987</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3031,22 +3028,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>0.933783513405362</v>
+        <v>0.9530212347298517</v>
       </c>
       <c r="C71">
         <v>0.9823047043590849</v>
       </c>
       <c r="D71">
+        <v>0.9337967459932005</v>
+      </c>
+      <c r="E71">
+        <v>0.8092269326683292</v>
+      </c>
+      <c r="F71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="E71">
-        <v>0.9530212347298517</v>
-      </c>
-      <c r="F71">
-        <v>0.8092269326683292</v>
-      </c>
       <c r="G71">
-        <v>0.9154674883474809</v>
+        <v>0.9154701348650487</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3060,22 +3057,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>0.9552420968387355</v>
+        <v>0.9767975731737313</v>
       </c>
       <c r="C72">
         <v>0.9971946482520501</v>
       </c>
       <c r="D72">
+        <v>0.9552574065080135</v>
+      </c>
+      <c r="E72">
+        <v>0.820682668329177</v>
+      </c>
+      <c r="F72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="E72">
-        <v>0.9767975731737313</v>
-      </c>
-      <c r="F72">
-        <v>0.820682668329177</v>
-      </c>
       <c r="G72">
-        <v>0.9417325088354038</v>
+        <v>0.9417355707692595</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3089,22 +3086,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>0.9559723889555821</v>
+        <v>0.9663031893088465</v>
       </c>
       <c r="C73">
         <v>0.9986332901740756</v>
       </c>
       <c r="D73">
+        <v>0.9559859154929577</v>
+      </c>
+      <c r="E73">
+        <v>0.8162406483790525</v>
+      </c>
+      <c r="F73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="E73">
-        <v>0.9663031893088465</v>
-      </c>
-      <c r="F73">
-        <v>0.8162406483790525</v>
-      </c>
       <c r="G73">
-        <v>0.9375365213637036</v>
+        <v>0.9375392266711787</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3118,22 +3115,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>0.9653361344537815</v>
+        <v>0.9699106337624006</v>
       </c>
       <c r="C74">
         <v>0.9987771543662782</v>
       </c>
       <c r="D74">
+        <v>0.9653351141330744</v>
+      </c>
+      <c r="E74">
+        <v>0.8091490024937656</v>
+      </c>
+      <c r="F74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="E74">
-        <v>0.9699106337624006</v>
-      </c>
-      <c r="F74">
-        <v>0.8091490024937656</v>
-      </c>
       <c r="G74">
-        <v>0.9384626514834039</v>
+        <v>0.9384624474192624</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3147,22 +3144,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>0.9624349739895959</v>
+        <v>0.9802410428793966</v>
       </c>
       <c r="C75">
         <v>0.9953244137534166</v>
       </c>
       <c r="D75">
+        <v>0.9624514327343371</v>
+      </c>
+      <c r="E75">
+        <v>0.8092269326683292</v>
+      </c>
+      <c r="F75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="E75">
-        <v>0.9802410428793966</v>
-      </c>
-      <c r="F75">
-        <v>0.8092269326683292</v>
-      </c>
       <c r="G75">
-        <v>0.939753800388433</v>
+        <v>0.9397570921373812</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3176,22 +3173,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>0.975670268107243</v>
+        <v>0.9842584242026727</v>
       </c>
       <c r="C76">
         <v>1.004459789958279</v>
       </c>
       <c r="D76">
+        <v>0.9756860126274891</v>
+      </c>
+      <c r="E76">
+        <v>0.8061097256857855</v>
+      </c>
+      <c r="F76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="E76">
-        <v>0.9842584242026727</v>
-      </c>
-      <c r="F76">
-        <v>0.8061097256857855</v>
-      </c>
       <c r="G76">
-        <v>0.9472607212181136</v>
+        <v>0.9472638701221627</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3205,22 +3202,22 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>0.9610644257703082</v>
+        <v>0.9868820201688939</v>
       </c>
       <c r="C77">
         <v>0.9968349877715436</v>
       </c>
       <c r="D77">
+        <v>0.9610854783875667</v>
+      </c>
+      <c r="E77">
+        <v>0.8057200748129677</v>
+      </c>
+      <c r="F77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="E77">
-        <v>0.9868820201688939</v>
-      </c>
-      <c r="F77">
-        <v>0.8057200748129677</v>
-      </c>
       <c r="G77">
-        <v>0.9406775757418189</v>
+        <v>0.9406817862652705</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3234,22 +3231,22 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>0.9734393757503</v>
+        <v>0.9753218004427318</v>
       </c>
       <c r="C78">
         <v>1.005107178823191</v>
       </c>
       <c r="D78">
+        <v>0.973439776590578</v>
+      </c>
+      <c r="E78">
+        <v>0.7945760598503742</v>
+      </c>
+      <c r="F78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="E78">
-        <v>0.9753218004427318</v>
-      </c>
-      <c r="F78">
-        <v>0.7945760598503742</v>
-      </c>
       <c r="G78">
-        <v>0.9388926098007135</v>
+        <v>0.9388926899687692</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3263,22 +3260,22 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>0.9803021208483393</v>
+        <v>0.995244732311224</v>
       </c>
       <c r="C79">
         <v>1.024384980578334</v>
       </c>
       <c r="D79">
+        <v>0.9802999028654686</v>
+      </c>
+      <c r="E79">
+        <v>0.8017456359102244</v>
+      </c>
+      <c r="F79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="E79">
-        <v>0.995244732311224</v>
-      </c>
-      <c r="F79">
-        <v>0.8017456359102244</v>
-      </c>
       <c r="G79">
-        <v>0.9547452528384707</v>
+        <v>0.9547448092418966</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3292,22 +3289,22 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>0.9849739895958384</v>
+        <v>1.00278757071411</v>
       </c>
       <c r="C80">
         <v>1.040929362681629</v>
       </c>
       <c r="D80">
+        <v>0.984974502185527</v>
+      </c>
+      <c r="E80">
+        <v>0.801278054862843</v>
+      </c>
+      <c r="F80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="E80">
-        <v>1.00278757071411</v>
-      </c>
-      <c r="F80">
-        <v>0.801278054862843</v>
-      </c>
       <c r="G80">
-        <v>0.9603075022273051</v>
+        <v>0.9603076047452428</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3321,22 +3318,22 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>0.9901760704281712</v>
+        <v>1.008198737394441</v>
       </c>
       <c r="C81">
         <v>1.028844770536613</v>
       </c>
       <c r="D81">
+        <v>0.9901954832442934</v>
+      </c>
+      <c r="E81">
+        <v>0.7742362842892769</v>
+      </c>
+      <c r="F81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="E81">
-        <v>1.008198737394441</v>
-      </c>
-      <c r="F81">
-        <v>0.7742362842892769</v>
-      </c>
       <c r="G81">
-        <v>0.9587063103646828</v>
+        <v>0.9587101929279074</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3350,22 +3347,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>0.9645658263305322</v>
+        <v>0.994260883823891</v>
       </c>
       <c r="C82">
         <v>1.025679758308157</v>
       </c>
       <c r="D82">
+        <v>0.9645762506070908</v>
+      </c>
+      <c r="E82">
+        <v>0.7846009975062345</v>
+      </c>
+      <c r="F82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="E82">
-        <v>0.994260883823891</v>
-      </c>
-      <c r="F82">
-        <v>0.7846009975062345</v>
-      </c>
       <c r="G82">
-        <v>0.9507478211161527</v>
+        <v>0.9507499059714646</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3379,22 +3376,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>0.9401060424169667</v>
+        <v>0.9480200049192425</v>
       </c>
       <c r="C83">
         <v>1.000431592576608</v>
       </c>
       <c r="D83">
+        <v>0.9401104905293832</v>
+      </c>
+      <c r="E83">
+        <v>0.7733011221945137</v>
+      </c>
+      <c r="F83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="E83">
-        <v>0.9480200049192425</v>
-      </c>
-      <c r="F83">
-        <v>0.7733011221945137</v>
-      </c>
       <c r="G83">
-        <v>0.9234581033963967</v>
+        <v>0.9234589930188799</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3408,22 +3405,22 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>0.944577831132453</v>
+        <v>0.927687136181028</v>
       </c>
       <c r="C84">
         <v>1.000071932096101</v>
       </c>
       <c r="D84">
+        <v>0.9445726080621661</v>
+      </c>
+      <c r="E84">
+        <v>0.7623129675810474</v>
+      </c>
+      <c r="F84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="E84">
-        <v>0.927687136181028</v>
-      </c>
-      <c r="F84">
-        <v>0.7623129675810474</v>
-      </c>
       <c r="G84">
-        <v>0.9198125014934099</v>
+        <v>0.9198114568793525</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3437,22 +3434,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>0.9620248099239697</v>
+        <v>0.9358858735754694</v>
       </c>
       <c r="C85">
         <v>1.000143864192202</v>
       </c>
       <c r="D85">
+        <v>0.9620264691597863</v>
+      </c>
+      <c r="E85">
+        <v>0.7819513715710724</v>
+      </c>
+      <c r="F85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="E85">
-        <v>0.9358858735754694</v>
-      </c>
-      <c r="F85">
-        <v>0.7819513715710724</v>
-      </c>
       <c r="G85">
-        <v>0.9248975434721759</v>
+        <v>0.9248978753193393</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3466,22 +3463,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>0.9700680272108843</v>
+        <v>0.9504796261375748</v>
       </c>
       <c r="C86">
         <v>1.000503524672709</v>
       </c>
       <c r="D86">
+        <v>0.9700704225352114</v>
+      </c>
+      <c r="E86">
+        <v>0.7791458852867831</v>
+      </c>
+      <c r="F86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="E86">
-        <v>0.9504796261375748</v>
-      </c>
-      <c r="F86">
-        <v>0.7791458852867831</v>
-      </c>
       <c r="G86">
-        <v>0.9296753746248984</v>
+        <v>0.9296758536897638</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3495,22 +3492,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>0.9667567026810725</v>
+        <v>0.9430187751086332</v>
       </c>
       <c r="C87">
         <v>0.9832398216084016</v>
       </c>
       <c r="D87">
+        <v>0.9667617775619232</v>
+      </c>
+      <c r="E87">
+        <v>0.7760286783042395</v>
+      </c>
+      <c r="F87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="E87">
-        <v>0.9430187751086332</v>
-      </c>
-      <c r="F87">
-        <v>0.7760286783042395</v>
-      </c>
       <c r="G87">
-        <v>0.9190263538922128</v>
+        <v>0.9190273688683829</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3524,22 +3521,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>0.9860044017607043</v>
+        <v>0.9664671640567353</v>
       </c>
       <c r="C88">
         <v>0.9917278089483527</v>
       </c>
       <c r="D88">
+        <v>0.9860065565808644</v>
+      </c>
+      <c r="E88">
+        <v>0.8062655860349127</v>
+      </c>
+      <c r="F88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="E88">
-        <v>0.9664671640567353</v>
-      </c>
-      <c r="F88">
-        <v>0.8062655860349127</v>
-      </c>
       <c r="G88">
-        <v>0.9412465797117692</v>
+        <v>0.9412470106758012</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3553,22 +3550,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>1.008043217286915</v>
+        <v>0.9776174469131753</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
+        <v>1.008043953375425</v>
+      </c>
+      <c r="E89">
+        <v>0.8110193266832918</v>
+      </c>
+      <c r="F89">
         <v>1.002449332436846</v>
       </c>
-      <c r="E89">
-        <v>0.9776174469131753</v>
-      </c>
-      <c r="F89">
-        <v>0.8110193266832918</v>
-      </c>
       <c r="G89">
-        <v>0.9598258646640456</v>
+        <v>0.9598260118817477</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3582,22 +3579,22 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>1.005902360944378</v>
+        <v>0.9699106337624006</v>
       </c>
       <c r="C90">
         <v>1.004100129477773</v>
       </c>
       <c r="D90">
+        <v>1.005919135502671</v>
+      </c>
+      <c r="E90">
+        <v>0.8293329177057358</v>
+      </c>
+      <c r="F90">
         <v>1.003361828834886</v>
       </c>
-      <c r="E90">
-        <v>0.9699106337624006</v>
-      </c>
-      <c r="F90">
-        <v>0.8293329177057358</v>
-      </c>
       <c r="G90">
-        <v>0.9625215741450347</v>
+        <v>0.9625249290566934</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3611,22 +3608,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>1.003171268507403</v>
+        <v>0.9844223989505617</v>
       </c>
       <c r="C91">
         <v>0.993094518774277</v>
       </c>
       <c r="D91">
+        <v>1.003187226809131</v>
+      </c>
+      <c r="E91">
+        <v>0.8308915211970076</v>
+      </c>
+      <c r="F91">
         <v>1.040149841513784</v>
       </c>
-      <c r="E91">
-        <v>0.9844223989505617</v>
-      </c>
-      <c r="F91">
-        <v>0.8308915211970076</v>
-      </c>
       <c r="G91">
-        <v>0.9703459097886066</v>
+        <v>0.9703491014489523</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3640,22 +3637,22 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.006332533013205</v>
+        <v>0.9827826514716734</v>
       </c>
       <c r="C92">
         <v>1.014674147604661</v>
       </c>
       <c r="D92">
+        <v>1.006344099077222</v>
+      </c>
+      <c r="E92">
+        <v>0.8322942643391522</v>
+      </c>
+      <c r="F92">
         <v>1.044616271251561</v>
       </c>
-      <c r="E92">
-        <v>0.9827826514716734</v>
-      </c>
-      <c r="F92">
-        <v>0.8322942643391522</v>
-      </c>
       <c r="G92">
-        <v>0.9761399735360506</v>
+        <v>0.9761422867488539</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3669,22 +3666,22 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>0.9988695478191276</v>
+        <v>0.9732721160941216</v>
       </c>
       <c r="C93">
         <v>1.013739030355344</v>
       </c>
       <c r="D93">
+        <v>0.9988768819815445</v>
+      </c>
+      <c r="E93">
+        <v>0.8153054862842893</v>
+      </c>
+      <c r="F93">
         <v>1.040437998271059</v>
       </c>
-      <c r="E93">
-        <v>0.9732721160941216</v>
-      </c>
-      <c r="F93">
-        <v>0.8153054862842893</v>
-      </c>
       <c r="G93">
-        <v>0.9683248357647886</v>
+        <v>0.9683263025972718</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3698,22 +3695,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.004821928771509</v>
+        <v>0.9822907272280068</v>
       </c>
       <c r="C94">
         <v>1.013163573586534</v>
       </c>
       <c r="D94">
+        <v>1.004826372025255</v>
+      </c>
+      <c r="E94">
+        <v>0.8232543640897756</v>
+      </c>
+      <c r="F94">
         <v>1.046825473057343</v>
       </c>
-      <c r="E94">
-        <v>0.9822907272280068</v>
-      </c>
-      <c r="F94">
-        <v>0.8232543640897756</v>
-      </c>
       <c r="G94">
-        <v>0.9740712133466337</v>
+        <v>0.974072101997383</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3727,22 +3724,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.035834333733493</v>
+        <v>1.014429777814217</v>
       </c>
       <c r="C95">
         <v>1.019421665947346</v>
       </c>
       <c r="D95">
+        <v>1.03584871296746</v>
+      </c>
+      <c r="E95">
+        <v>0.8514650872817956</v>
+      </c>
+      <c r="F95">
         <v>1.060320814523101</v>
       </c>
-      <c r="E95">
-        <v>1.014429777814217</v>
-      </c>
-      <c r="F95">
-        <v>0.8514650872817956</v>
-      </c>
       <c r="G95">
-        <v>0.9962943358599905</v>
+        <v>0.9962972117067838</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3756,22 +3753,22 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.039335734293718</v>
+        <v>1.002459621218332</v>
       </c>
       <c r="C96">
         <v>1.031650122284563</v>
       </c>
       <c r="D96">
+        <v>1.039339485186984</v>
+      </c>
+      <c r="E96">
+        <v>0.8516209476309228</v>
+      </c>
+      <c r="F96">
         <v>1.051195850542695</v>
       </c>
-      <c r="E96">
-        <v>1.002459621218332</v>
-      </c>
-      <c r="F96">
-        <v>0.8516209476309228</v>
-      </c>
       <c r="G96">
-        <v>0.9952524551940463</v>
+        <v>0.9952532053726996</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3785,22 +3782,22 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>1.043657462985194</v>
+        <v>1.044929080921538</v>
       </c>
       <c r="C97">
         <v>1.048554164868364</v>
       </c>
       <c r="D97">
+        <v>1.043680184555609</v>
+      </c>
+      <c r="E97">
+        <v>0.8588684538653368</v>
+      </c>
+      <c r="F97">
         <v>1.054605705503794</v>
       </c>
-      <c r="E97">
-        <v>1.044929080921538</v>
-      </c>
-      <c r="F97">
-        <v>0.8588684538653368</v>
-      </c>
       <c r="G97">
-        <v>1.010122973628846</v>
+        <v>1.010127517942929</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3814,22 +3811,22 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.035534213685474</v>
+        <v>1.034762646552431</v>
       </c>
       <c r="C98">
         <v>1.035606387570134</v>
       </c>
       <c r="D98">
+        <v>1.035545167557067</v>
+      </c>
+      <c r="E98">
+        <v>0.8636221945137158</v>
+      </c>
+      <c r="F98">
         <v>1.100230525405821</v>
       </c>
-      <c r="E98">
-        <v>1.034762646552431</v>
-      </c>
-      <c r="F98">
-        <v>0.8636221945137158</v>
-      </c>
       <c r="G98">
-        <v>1.013951193545515</v>
+        <v>1.013953384319834</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3843,22 +3840,22 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.039975990396158</v>
+        <v>1.060506681970977</v>
       </c>
       <c r="C99">
         <v>1.034671270320817</v>
       </c>
       <c r="D99">
+        <v>1.03997693054881</v>
+      </c>
+      <c r="E99">
+        <v>0.8893391521197008</v>
+      </c>
+      <c r="F99">
         <v>1.15565267505523</v>
       </c>
-      <c r="E99">
-        <v>1.060506681970977</v>
-      </c>
-      <c r="F99">
-        <v>0.8893391521197008</v>
-      </c>
       <c r="G99">
-        <v>1.036029153972577</v>
+        <v>1.036029342003107</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3872,22 +3869,22 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.045858343337335</v>
+        <v>1.072230876445027</v>
       </c>
       <c r="C100">
         <v>1.031578190188462</v>
       </c>
       <c r="D100">
+        <v>1.045865711510442</v>
+      </c>
+      <c r="E100">
+        <v>0.883806109725686</v>
+      </c>
+      <c r="F100">
         <v>1.144894822783594</v>
       </c>
-      <c r="E100">
-        <v>1.072230876445027</v>
-      </c>
-      <c r="F100">
-        <v>0.883806109725686</v>
-      </c>
       <c r="G100">
-        <v>1.035673668496021</v>
+        <v>1.035675142130642</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3901,22 +3898,22 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.030612244897959</v>
+        <v>1.059604820857588</v>
       </c>
       <c r="C101">
         <v>1.029420227305424</v>
       </c>
       <c r="D101">
+        <v>1.030627731908694</v>
+      </c>
+      <c r="E101">
+        <v>0.8630766832917706</v>
+      </c>
+      <c r="F101">
         <v>1.139131687638075</v>
       </c>
-      <c r="E101">
-        <v>1.059604820857588</v>
-      </c>
-      <c r="F101">
-        <v>0.8630766832917706</v>
-      </c>
       <c r="G101">
-        <v>1.024369132798163</v>
+        <v>1.02437223020031</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3930,22 +3927,22 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>1.02593037214886</v>
+        <v>1.043617282938427</v>
       </c>
       <c r="C102">
         <v>1.029276363113221</v>
       </c>
       <c r="D102">
+        <v>1.025953132588635</v>
+      </c>
+      <c r="E102">
+        <v>0.8511533665835412</v>
+      </c>
+      <c r="F102">
         <v>1.133560656997407</v>
       </c>
-      <c r="E102">
-        <v>1.043617282938427</v>
-      </c>
-      <c r="F102">
-        <v>0.8511533665835412</v>
-      </c>
       <c r="G102">
-        <v>1.016707608356291</v>
+        <v>1.016712160444246</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3959,22 +3956,22 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>1.030612244897959</v>
+        <v>1.066655735016807</v>
       </c>
       <c r="C103">
         <v>1.033951949359804</v>
       </c>
       <c r="D103">
+        <v>1.030627731908694</v>
+      </c>
+      <c r="E103">
+        <v>0.8606608478802994</v>
+      </c>
+      <c r="F103">
         <v>1.162376332725003</v>
       </c>
-      <c r="E103">
-        <v>1.066655735016807</v>
-      </c>
-      <c r="F103">
-        <v>0.8606608478802994</v>
-      </c>
       <c r="G103">
-        <v>1.030851421975975</v>
+        <v>1.030854519378122</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3988,22 +3985,22 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>1.029291716686675</v>
+        <v>1.09067803558252</v>
       </c>
       <c r="C104">
         <v>1.031722054380664</v>
       </c>
       <c r="D104">
+        <v>1.029292132102962</v>
+      </c>
+      <c r="E104">
+        <v>0.8759351620947633</v>
+      </c>
+      <c r="F104">
         <v>1.137114590337144</v>
       </c>
-      <c r="E104">
-        <v>1.09067803558252</v>
-      </c>
-      <c r="F104">
-        <v>0.8759351620947633</v>
-      </c>
       <c r="G104">
-        <v>1.032948311816353</v>
+        <v>1.032948394899611</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -4017,22 +4014,22 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.013805522208884</v>
+        <v>1.083955070919078</v>
       </c>
       <c r="C105">
         <v>1.02754999280679</v>
       </c>
       <c r="D105">
+        <v>1.013811316172899</v>
+      </c>
+      <c r="E105">
+        <v>0.8875467581047383</v>
+      </c>
+      <c r="F105">
         <v>1.128710018249928</v>
       </c>
-      <c r="E105">
-        <v>1.083955070919078</v>
-      </c>
-      <c r="F105">
-        <v>0.8875467581047383</v>
-      </c>
       <c r="G105">
-        <v>1.028313472457884</v>
+        <v>1.028314631250687</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4046,22 +4043,22 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.018607442977191</v>
+        <v>1.097974911863573</v>
       </c>
       <c r="C106">
         <v>1.022802474464106</v>
       </c>
       <c r="D106">
+        <v>1.018607333657115</v>
+      </c>
+      <c r="E106">
+        <v>0.8935473815461348</v>
+      </c>
+      <c r="F106">
         <v>1.127413312842186</v>
       </c>
-      <c r="E106">
-        <v>1.097974911863573</v>
-      </c>
-      <c r="F106">
-        <v>0.8935473815461348</v>
-      </c>
       <c r="G106">
-        <v>1.032069104738638</v>
+        <v>1.032069082874623</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4075,22 +4072,22 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.032052821128451</v>
+        <v>1.113388538165123</v>
       </c>
       <c r="C107">
         <v>1.030139548266436</v>
       </c>
       <c r="D107">
+        <v>1.032054395337543</v>
+      </c>
+      <c r="E107">
+        <v>0.8955735660847881</v>
+      </c>
+      <c r="F107">
         <v>1.169964460666603</v>
       </c>
-      <c r="E107">
-        <v>1.113388538165123</v>
-      </c>
-      <c r="F107">
-        <v>0.8955735660847881</v>
-      </c>
       <c r="G107">
-        <v>1.04822378686228</v>
+        <v>1.048224101704099</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4104,22 +4101,22 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.022929171668667</v>
+        <v>1.095351315897352</v>
       </c>
       <c r="C108">
         <v>1.021004172061574</v>
       </c>
       <c r="D108">
+        <v>1.022948033025741</v>
+      </c>
+      <c r="E108">
+        <v>0.8650249376558605</v>
+      </c>
+      <c r="F108">
         <v>1.182163096724618</v>
       </c>
-      <c r="E108">
-        <v>1.095351315897352</v>
-      </c>
-      <c r="F108">
-        <v>0.8650249376558605</v>
-      </c>
       <c r="G108">
-        <v>1.037294538801615</v>
+        <v>1.037298311073029</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4133,22 +4130,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.012845138055222</v>
+        <v>1.110027055833402</v>
       </c>
       <c r="C109">
         <v>1.013954826643648</v>
       </c>
       <c r="D109">
+        <v>1.012839970859641</v>
+      </c>
+      <c r="E109">
+        <v>0.8675966334164589</v>
+      </c>
+      <c r="F109">
         <v>1.177408510229565</v>
       </c>
-      <c r="E109">
-        <v>1.110027055833402</v>
-      </c>
-      <c r="F109">
-        <v>0.8675966334164589</v>
-      </c>
       <c r="G109">
-        <v>1.036366432835659</v>
+        <v>1.036365399396543</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4162,22 +4159,22 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>0.9944777911164465</v>
+        <v>1.074936459785193</v>
       </c>
       <c r="C110">
         <v>1.007121277514027</v>
       </c>
       <c r="D110">
+        <v>0.9944754735308401</v>
+      </c>
+      <c r="E110">
+        <v>0.8565305486284289</v>
+      </c>
+      <c r="F110">
         <v>1.10147920468735</v>
       </c>
-      <c r="E110">
-        <v>1.074936459785193</v>
-      </c>
-      <c r="F110">
-        <v>0.8565305486284289</v>
-      </c>
       <c r="G110">
-        <v>1.006909056346289</v>
+        <v>1.006908592829168</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4191,22 +4188,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>0.9993997599039616</v>
+        <v>1.162662949905714</v>
       </c>
       <c r="C111">
         <v>1.005107178823191</v>
       </c>
       <c r="D111">
+        <v>0.9994232637202526</v>
+      </c>
+      <c r="E111">
+        <v>0.8651028678304241</v>
+      </c>
+      <c r="F111">
         <v>1.133128421861493</v>
       </c>
-      <c r="E111">
-        <v>1.162662949905714</v>
-      </c>
-      <c r="F111">
-        <v>0.8651028678304241</v>
-      </c>
       <c r="G111">
-        <v>1.033080235664957</v>
+        <v>1.033084936428215</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4220,22 +4217,22 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>1.002881152460984</v>
+        <v>1.171435598917767</v>
       </c>
       <c r="C112">
         <v>1.003093080132355</v>
       </c>
       <c r="D112">
+        <v>1.002883681398737</v>
+      </c>
+      <c r="E112">
+        <v>0.8840399002493767</v>
+      </c>
+      <c r="F112">
         <v>1.187926231870138</v>
       </c>
-      <c r="E112">
-        <v>1.171435598917767</v>
-      </c>
-      <c r="F112">
-        <v>0.8840399002493767</v>
-      </c>
       <c r="G112">
-        <v>1.049875192726124</v>
+        <v>1.049875698513675</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4249,22 +4246,22 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.002400960384153</v>
+        <v>1.177830614085431</v>
       </c>
       <c r="C113">
         <v>1.006330024456913</v>
       </c>
       <c r="D113">
+        <v>1.002398008742108</v>
+      </c>
+      <c r="E113">
+        <v>0.9191084788029926</v>
+      </c>
+      <c r="F113">
         <v>1.192968975122467</v>
       </c>
-      <c r="E113">
-        <v>1.177830614085431</v>
-      </c>
-      <c r="F113">
-        <v>0.9191084788029926</v>
-      </c>
       <c r="G113">
-        <v>1.059727810570391</v>
+        <v>1.059727220241982</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4278,22 +4275,22 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.018367346938776</v>
+        <v>1.176026891858654</v>
       </c>
       <c r="C114">
         <v>1.0168321104877</v>
       </c>
       <c r="D114">
+        <v>1.0183644973288</v>
+      </c>
+      <c r="E114">
+        <v>0.912562344139651</v>
+      </c>
+      <c r="F114">
         <v>1.193593314763231</v>
       </c>
-      <c r="E114">
-        <v>1.176026891858654</v>
-      </c>
-      <c r="F114">
-        <v>0.912562344139651</v>
-      </c>
       <c r="G114">
-        <v>1.063476401637602</v>
+        <v>1.063475831715607</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4307,22 +4304,22 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.019567827130852</v>
+        <v>1.231778306140854</v>
       </c>
       <c r="C115">
         <v>1.018990073370738</v>
       </c>
       <c r="D115">
+        <v>1.019578678970374</v>
+      </c>
+      <c r="E115">
+        <v>0.9116271820448878</v>
+      </c>
+      <c r="F115">
         <v>1.227211603112093</v>
       </c>
-      <c r="E115">
-        <v>1.231778306140854</v>
-      </c>
-      <c r="F115">
-        <v>0.9116271820448878</v>
-      </c>
       <c r="G115">
-        <v>1.081834998359885</v>
+        <v>1.081837168727789</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4336,22 +4333,22 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.012484993997599</v>
+        <v>1.212265311142084</v>
       </c>
       <c r="C116">
         <v>1.01294777729823</v>
       </c>
       <c r="D116">
+        <v>1.012506070908208</v>
+      </c>
+      <c r="E116">
+        <v>0.8972880299251871</v>
+      </c>
+      <c r="F116">
         <v>1.212563634617232</v>
       </c>
-      <c r="E116">
-        <v>1.212265311142084</v>
-      </c>
-      <c r="F116">
-        <v>0.8972880299251871</v>
-      </c>
       <c r="G116">
-        <v>1.069509949396066</v>
+        <v>1.069514164778188</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4365,22 +4362,22 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.027010804321729</v>
+        <v>1.227678937443634</v>
       </c>
       <c r="C117">
         <v>1.028197381671702</v>
       </c>
       <c r="D117">
+        <v>1.027015541525012</v>
+      </c>
+      <c r="E117">
+        <v>0.8997817955112221</v>
+      </c>
+      <c r="F117">
         <v>1.235616175199308</v>
       </c>
-      <c r="E117">
-        <v>1.227678937443634</v>
-      </c>
-      <c r="F117">
-        <v>0.8997817955112221</v>
-      </c>
       <c r="G117">
-        <v>1.083657018829519</v>
+        <v>1.083657966270176</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4394,28 +4391,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.027010804321729</v>
+        <v>1.248913667295237</v>
       </c>
       <c r="C118">
-        <v>1.028197381671702</v>
+        <v>1.021435764638182</v>
       </c>
       <c r="D118">
-        <v>1.235616175199308</v>
+        <v>1.037578921806702</v>
       </c>
       <c r="E118">
-        <v>1.227678937443634</v>
+        <v>0.9050031172069826</v>
       </c>
       <c r="F118">
-        <v>0.8997817955112221</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="G118">
-        <v>1.083657018829519</v>
+        <v>1.096029767438868</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.23579568746413</v>
+      </c>
+      <c r="C119">
+        <v>1.013954826643648</v>
+      </c>
+      <c r="D119">
+        <v>1.029292132102962</v>
+      </c>
+      <c r="E119">
+        <v>0.8849750623441397</v>
+      </c>
+      <c r="F119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="G119">
+        <v>1.086842538925461</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.295564483069607</v>
+      </c>
+      <c r="C120">
+        <v>1.024241116386131</v>
+      </c>
+      <c r="D120">
+        <v>1.029170713938805</v>
+      </c>
+      <c r="E120">
+        <v>0.8979114713216958</v>
+      </c>
+      <c r="F120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="G120">
+        <v>1.110140211827505</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.264245306222842</v>
+      </c>
+      <c r="C121">
+        <v>1.031074665515753</v>
+      </c>
+      <c r="D121">
+        <v>1.046108547838757</v>
+      </c>
+      <c r="E121">
+        <v>0.859569825436409</v>
+      </c>
+      <c r="F121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="G121">
+        <v>1.097533258475425</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.24358448798885</v>
+      </c>
+      <c r="C122">
+        <v>1.009926629261977</v>
+      </c>
+      <c r="D122">
+        <v>1.00734579893152</v>
+      </c>
+      <c r="E122">
+        <v>0.8307356608478804</v>
+      </c>
+      <c r="F122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="G122">
+        <v>1.074739608480678</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.296466344182996</v>
+      </c>
+      <c r="C123">
+        <v>0.9974823766364551</v>
+      </c>
+      <c r="D123">
+        <v>0.9986947547353083</v>
+      </c>
+      <c r="E123">
+        <v>0.8346321695760599</v>
+      </c>
+      <c r="F123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="G123">
+        <v>1.088955273104542</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.269656472903173</v>
+      </c>
+      <c r="C124">
+        <v>1.002589555459646</v>
+      </c>
+      <c r="D124">
+        <v>0.9815140845070423</v>
+      </c>
+      <c r="E124">
+        <v>0.8402431421446385</v>
+      </c>
+      <c r="F124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="G124">
+        <v>1.082617767514282</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.307042715421825</v>
+      </c>
+      <c r="C125">
+        <v>1.010645950222989</v>
+      </c>
+      <c r="D125">
+        <v>0.9924417192812044</v>
+      </c>
+      <c r="E125">
+        <v>0.8637001246882794</v>
+      </c>
+      <c r="F125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="G125">
+        <v>1.113365660082499</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.345740755923588</v>
+      </c>
+      <c r="C126">
+        <v>1.008775715724356</v>
+      </c>
+      <c r="D126">
+        <v>0.9783875667799903</v>
+      </c>
+      <c r="E126">
+        <v>0.8980673316708231</v>
+      </c>
+      <c r="F126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="G126">
+        <v>1.129356314169593</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.325243912437485</v>
+      </c>
+      <c r="C127">
+        <v>0.9976981729247589</v>
+      </c>
+      <c r="D127">
+        <v>0.9724077221952404</v>
+      </c>
+      <c r="E127">
+        <v>0.8907418952618454</v>
+      </c>
+      <c r="F127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="G127">
+        <v>1.125202203785459</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4527,18 +4785,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4570,213 +4828,195 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>44.93</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K2">
-        <v>6.93</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L2">
-        <v>-3.04</v>
-      </c>
-      <c r="M2">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>21.55</v>
+        <v>4.20359992980957</v>
       </c>
       <c r="K3">
-        <v>4.32</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="L3">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M3">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.5999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>133.48</v>
+        <v>6.533899784088135</v>
       </c>
       <c r="K4">
-        <v>9.199999999999999</v>
+        <v>42.1609001159668</v>
       </c>
       <c r="L4">
-        <v>4.83</v>
-      </c>
-      <c r="M4">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.5233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>81.61</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K5">
-        <v>8.33</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L5">
-        <v>20.06</v>
-      </c>
-      <c r="M5">
-        <v>59.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>67.98</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K6">
-        <v>3.81</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L6">
-        <v>1.45</v>
-      </c>
-      <c r="M6">
-        <v>27.09</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -4794,19 +5034,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4814,19 +5054,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4834,19 +5074,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4854,19 +5094,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4874,19 +5114,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4894,19 +5134,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4914,19 +5154,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4934,19 +5174,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4954,19 +5194,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4974,19 +5214,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4994,19 +5234,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5014,19 +5254,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5034,19 +5274,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5054,19 +5294,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5074,19 +5314,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5094,19 +5334,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5114,19 +5354,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5134,19 +5374,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5154,19 +5394,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5174,19 +5414,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5194,19 +5434,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5224,54 +5464,54 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5282,51 +5522,51 @@
         <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5334,21 +5574,21 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
